--- a/Excel/02.Assignment 02/countif-sumif-exercises.xlsx
+++ b/Excel/02.Assignment 02/countif-sumif-exercises.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20361"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\venka\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amano\Documents\iNeuron-Assignments\Excel\02.Assignment 02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2F61128-70E2-4C03-A6BC-8B01869AC490}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8017F923-969D-4F44-A564-F3E7FA9FA98D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Exercise 1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Exercise 2 - result" sheetId="2" r:id="rId3"/>
     <sheet name="Credits" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -768,19 +768,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="J40" sqref="J40"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.44140625" customWidth="1"/>
-    <col min="4" max="4" width="17.5546875" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>29</v>
       </c>
@@ -803,7 +804,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>100001</v>
       </c>
@@ -826,7 +827,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>100002</v>
       </c>
@@ -849,7 +850,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>100003</v>
       </c>
@@ -872,7 +873,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>100004</v>
       </c>
@@ -895,7 +896,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>100005</v>
       </c>
@@ -918,7 +919,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>100006</v>
       </c>
@@ -941,7 +942,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>100007</v>
       </c>
@@ -964,7 +965,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>100008</v>
       </c>
@@ -987,7 +988,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>100009</v>
       </c>
@@ -1010,7 +1011,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>100010</v>
       </c>
@@ -1033,7 +1034,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>100011</v>
       </c>
@@ -1056,7 +1057,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>100012</v>
       </c>
@@ -1079,7 +1080,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>100013</v>
       </c>
@@ -1102,7 +1103,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>100014</v>
       </c>
@@ -1125,7 +1126,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>100015</v>
       </c>
@@ -1148,7 +1149,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>100016</v>
       </c>
@@ -1171,7 +1172,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>100017</v>
       </c>
@@ -1194,7 +1195,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>100018</v>
       </c>
@@ -1217,7 +1218,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>100019</v>
       </c>
@@ -1240,7 +1241,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>100020</v>
       </c>
@@ -1263,7 +1264,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>100021</v>
       </c>
@@ -1286,7 +1287,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>100022</v>
       </c>
@@ -1309,7 +1310,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>100023</v>
       </c>
@@ -1332,7 +1333,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>100024</v>
       </c>
@@ -1355,108 +1356,136 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F28" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E29" s="4" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F29">
+        <f>COUNTIF(G2:G25,"Boston")</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E30" s="4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F30">
+        <f>COUNTIF(D2:D25,"microwave")</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E31" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F31">
+        <f>COUNTIF(F2:F25,"truck 3")</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E32" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="33" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="F32">
+        <f>COUNTIF(C2:C25,"Peter White")</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E33" s="4" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="35" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="F33">
+        <f>COUNTIF(E2:E25,"&lt;20")</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="5:6" x14ac:dyDescent="0.25">
       <c r="F35" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E36" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="37" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="F36">
+        <f>SUMIF(D2:D25,"refrigerator",E2:E25)</f>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="37" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E37" s="4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="38" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="F37">
+        <f>SUMIF(D2:D25,"washing machine",E2:E25)</f>
+        <v>164</v>
+      </c>
+    </row>
+    <row r="38" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E38" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="39" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E39" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="41" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E41" s="4"/>
       <c r="F41" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E42" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E43" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E44" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="45" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E45" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="46" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="5:6" x14ac:dyDescent="0.25">
       <c r="F46" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="47" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E47" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="48" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E48" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="49" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E49" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="52" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E52" s="4" t="s">
         <v>32</v>
       </c>
@@ -1474,18 +1503,18 @@
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.44140625" customWidth="1"/>
-    <col min="2" max="2" width="21.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5546875" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
     <col min="6" max="6" width="26" customWidth="1"/>
-    <col min="7" max="7" width="17.88671875" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>60</v>
       </c>
@@ -1505,7 +1534,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>49</v>
       </c>
@@ -1515,7 +1544,7 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>47</v>
       </c>
@@ -1525,7 +1554,7 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>48</v>
       </c>
@@ -1535,7 +1564,7 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>52</v>
       </c>
@@ -1545,7 +1574,7 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="17"/>
       <c r="C6" s="17"/>
@@ -1553,7 +1582,7 @@
       <c r="E6" s="17"/>
       <c r="F6" s="17"/>
     </row>
-    <row r="8" spans="1:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>61</v>
       </c>
@@ -1573,7 +1602,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>53</v>
       </c>
@@ -1583,7 +1612,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>54</v>
       </c>
@@ -1593,7 +1622,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>56</v>
       </c>
@@ -1603,13 +1632,13 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" s="16"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" s="16"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
         <v>65</v>
       </c>
@@ -1618,7 +1647,7 @@
       <c r="D14" s="19"/>
       <c r="E14" s="19"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>1</v>
       </c>
@@ -1635,7 +1664,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>41395</v>
       </c>
@@ -1652,7 +1681,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>41395</v>
       </c>
@@ -1669,7 +1698,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>41395</v>
       </c>
@@ -1686,7 +1715,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>41395</v>
       </c>
@@ -1703,7 +1732,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>41395</v>
       </c>
@@ -1720,7 +1749,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>41395</v>
       </c>
@@ -1737,7 +1766,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>41395</v>
       </c>
@@ -1754,7 +1783,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>41395</v>
       </c>
@@ -1771,7 +1800,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>41396</v>
       </c>
@@ -1788,7 +1817,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>41396</v>
       </c>
@@ -1805,7 +1834,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>41396</v>
       </c>
@@ -1822,7 +1851,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>41396</v>
       </c>
@@ -1839,7 +1868,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
         <v>41396</v>
       </c>
@@ -1856,7 +1885,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>41396</v>
       </c>
@@ -1873,7 +1902,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
         <v>41396</v>
       </c>
@@ -1890,7 +1919,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
         <v>41396</v>
       </c>
@@ -1907,7 +1936,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
         <v>41396</v>
       </c>
@@ -1924,7 +1953,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="7">
         <v>41396</v>
       </c>
@@ -1941,7 +1970,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="7">
         <v>41396</v>
       </c>
@@ -1958,7 +1987,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
         <v>41396</v>
       </c>
@@ -1975,7 +2004,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="7">
         <v>41396</v>
       </c>
@@ -1992,7 +2021,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
         <v>41396</v>
       </c>
@@ -2009,7 +2038,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="7">
         <v>41397</v>
       </c>
@@ -2026,7 +2055,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="7">
         <v>41397</v>
       </c>
@@ -2043,7 +2072,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="7">
         <v>41397</v>
       </c>
@@ -2060,7 +2089,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="7">
         <v>41397</v>
       </c>
@@ -2077,7 +2106,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="7">
         <v>41397</v>
       </c>
@@ -2094,7 +2123,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="7">
         <v>41397</v>
       </c>
@@ -2111,7 +2140,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="7">
         <v>41397</v>
       </c>
@@ -2128,7 +2157,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="7">
         <v>41397</v>
       </c>
@@ -2145,7 +2174,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="7">
         <v>41398</v>
       </c>
@@ -2162,7 +2191,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="7">
         <v>41398</v>
       </c>
@@ -2179,7 +2208,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="7">
         <v>41398</v>
       </c>
@@ -2196,7 +2225,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="7">
         <v>41398</v>
       </c>
@@ -2213,7 +2242,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="7">
         <v>41398</v>
       </c>
@@ -2230,7 +2259,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="7">
         <v>41398</v>
       </c>
@@ -2247,7 +2276,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="7">
         <v>41398</v>
       </c>
@@ -2264,7 +2293,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="7">
         <v>41399</v>
       </c>
@@ -2281,7 +2310,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="7">
         <v>41399</v>
       </c>
@@ -2298,7 +2327,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="7">
         <v>41399</v>
       </c>
@@ -2315,7 +2344,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="7">
         <v>41399</v>
       </c>
@@ -2332,7 +2361,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="7">
         <v>41399</v>
       </c>
@@ -2349,7 +2378,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="7">
         <v>41399</v>
       </c>
@@ -2366,7 +2395,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="7">
         <v>41399</v>
       </c>
@@ -2383,7 +2412,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="7">
         <v>41399</v>
       </c>
@@ -2400,7 +2429,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="7">
         <v>41399</v>
       </c>
@@ -2417,7 +2446,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="7">
         <v>41399</v>
       </c>
@@ -2434,7 +2463,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="7">
         <v>41399</v>
       </c>
@@ -2451,7 +2480,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="7">
         <v>41399</v>
       </c>
@@ -2468,7 +2497,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="7">
         <v>41399</v>
       </c>
@@ -2485,7 +2514,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="7">
         <v>41400</v>
       </c>
@@ -2502,7 +2531,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="7">
         <v>41400</v>
       </c>
@@ -2519,7 +2548,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="7">
         <v>41400</v>
       </c>
@@ -2536,7 +2565,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="7">
         <v>41400</v>
       </c>
@@ -2553,7 +2582,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="7">
         <v>41400</v>
       </c>
@@ -2570,7 +2599,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="7">
         <v>41400</v>
       </c>
@@ -2587,7 +2616,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="7">
         <v>41400</v>
       </c>
@@ -2604,7 +2633,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="7">
         <v>41400</v>
       </c>
@@ -2621,7 +2650,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="7">
         <v>41400</v>
       </c>
@@ -2638,7 +2667,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="7">
         <v>41401</v>
       </c>
@@ -2655,7 +2684,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="7">
         <v>41401</v>
       </c>
@@ -2672,7 +2701,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="7">
         <v>41401</v>
       </c>
@@ -2689,7 +2718,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="7">
         <v>41401</v>
       </c>
@@ -2706,7 +2735,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="7">
         <v>41401</v>
       </c>
@@ -2723,7 +2752,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="7">
         <v>41401</v>
       </c>
@@ -2740,7 +2769,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="7">
         <v>41402</v>
       </c>
@@ -2757,7 +2786,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="7">
         <v>41402</v>
       </c>
@@ -2774,7 +2803,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="7">
         <v>41402</v>
       </c>
@@ -2791,7 +2820,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="7">
         <v>41402</v>
       </c>
@@ -2808,7 +2837,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="7">
         <v>41402</v>
       </c>
@@ -2825,7 +2854,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="7">
         <v>41402</v>
       </c>
@@ -2842,7 +2871,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="7">
         <v>41402</v>
       </c>
@@ -2859,7 +2888,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="7">
         <v>41402</v>
       </c>
@@ -2876,7 +2905,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="7">
         <v>41402</v>
       </c>
@@ -2893,7 +2922,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="7">
         <v>41402</v>
       </c>
@@ -2910,7 +2939,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="7">
         <v>41402</v>
       </c>
@@ -2927,7 +2956,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="7">
         <v>41402</v>
       </c>
@@ -2944,7 +2973,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="7">
         <v>41402</v>
       </c>
@@ -2961,7 +2990,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="7">
         <v>41403</v>
       </c>
@@ -2978,7 +3007,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="7">
         <v>41403</v>
       </c>
@@ -2995,7 +3024,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="7">
         <v>41403</v>
       </c>
@@ -3012,7 +3041,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="7">
         <v>41403</v>
       </c>
@@ -3029,7 +3058,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="7">
         <v>41403</v>
       </c>
@@ -3046,7 +3075,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="7">
         <v>41403</v>
       </c>
@@ -3063,7 +3092,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="7">
         <v>41403</v>
       </c>
@@ -3080,7 +3109,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="7">
         <v>41403</v>
       </c>
@@ -3097,7 +3126,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="7">
         <v>41403</v>
       </c>
@@ -3114,7 +3143,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="7">
         <v>41403</v>
       </c>
@@ -3131,7 +3160,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="7">
         <v>41404</v>
       </c>
@@ -3148,7 +3177,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="7">
         <v>41404</v>
       </c>
@@ -3165,7 +3194,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="7">
         <v>41404</v>
       </c>
@@ -3182,7 +3211,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="7">
         <v>41404</v>
       </c>
@@ -3199,7 +3228,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="7">
         <v>41404</v>
       </c>
@@ -3216,7 +3245,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="7">
         <v>41404</v>
       </c>
@@ -3233,7 +3262,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="7">
         <v>41404</v>
       </c>
@@ -3250,7 +3279,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="7">
         <v>41404</v>
       </c>
@@ -3267,7 +3296,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="7">
         <v>41404</v>
       </c>
@@ -3284,7 +3313,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="7">
         <v>41404</v>
       </c>
@@ -3301,7 +3330,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="7">
         <v>41404</v>
       </c>
@@ -3318,7 +3347,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="7">
         <v>41405</v>
       </c>
@@ -3335,7 +3364,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="7">
         <v>41405</v>
       </c>
@@ -3352,7 +3381,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="7">
         <v>41405</v>
       </c>
@@ -3369,7 +3398,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="7">
         <v>41405</v>
       </c>
@@ -3386,7 +3415,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="7">
         <v>41405</v>
       </c>
@@ -3403,7 +3432,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="7">
         <v>41405</v>
       </c>
@@ -3420,7 +3449,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="7">
         <v>41405</v>
       </c>
@@ -3437,7 +3466,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="7">
         <v>41405</v>
       </c>
@@ -3454,7 +3483,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="7">
         <v>41405</v>
       </c>
@@ -3471,7 +3500,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="7">
         <v>41405</v>
       </c>
@@ -3488,7 +3517,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="7">
         <v>41406</v>
       </c>
@@ -3505,7 +3534,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="7">
         <v>41406</v>
       </c>
@@ -3522,7 +3551,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="7">
         <v>41406</v>
       </c>
@@ -3539,7 +3568,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="7">
         <v>41406</v>
       </c>
@@ -3556,7 +3585,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="7">
         <v>41406</v>
       </c>
@@ -3573,7 +3602,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="7">
         <v>41406</v>
       </c>
@@ -3590,7 +3619,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="7">
         <v>41406</v>
       </c>
@@ -3607,7 +3636,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="7">
         <v>41406</v>
       </c>
@@ -3624,7 +3653,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="7">
         <v>41407</v>
       </c>
@@ -3641,7 +3670,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="7">
         <v>41407</v>
       </c>
@@ -3658,7 +3687,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="7">
         <v>41407</v>
       </c>
@@ -3675,7 +3704,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="7">
         <v>41407</v>
       </c>
@@ -3692,7 +3721,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="7">
         <v>41407</v>
       </c>
@@ -3709,7 +3738,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="7">
         <v>41407</v>
       </c>
@@ -3726,7 +3755,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="7">
         <v>41407</v>
       </c>
@@ -3743,7 +3772,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="7">
         <v>41407</v>
       </c>
@@ -3760,7 +3789,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="7">
         <v>41407</v>
       </c>
@@ -3777,7 +3806,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="7">
         <v>41407</v>
       </c>
@@ -3794,7 +3823,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="7">
         <v>41407</v>
       </c>
@@ -3811,7 +3840,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="7">
         <v>41407</v>
       </c>
@@ -3828,7 +3857,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="7">
         <v>41407</v>
       </c>
@@ -3845,7 +3874,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="7">
         <v>41407</v>
       </c>
@@ -3862,7 +3891,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="7">
         <v>41408</v>
       </c>
@@ -3879,7 +3908,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="7">
         <v>41408</v>
       </c>
@@ -3896,7 +3925,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="7">
         <v>41408</v>
       </c>
@@ -3913,7 +3942,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="7">
         <v>41408</v>
       </c>
@@ -3930,7 +3959,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="7">
         <v>41408</v>
       </c>
@@ -3947,7 +3976,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="7">
         <v>41408</v>
       </c>
@@ -3964,7 +3993,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="7">
         <v>41408</v>
       </c>
@@ -3981,7 +4010,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="7">
         <v>41408</v>
       </c>
@@ -3998,7 +4027,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="7">
         <v>41408</v>
       </c>
@@ -4015,7 +4044,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="7">
         <v>41409</v>
       </c>
@@ -4032,7 +4061,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="7">
         <v>41409</v>
       </c>
@@ -4049,7 +4078,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="7">
         <v>41409</v>
       </c>
@@ -4066,7 +4095,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="7">
         <v>41409</v>
       </c>
@@ -4083,7 +4112,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="7">
         <v>41409</v>
       </c>
@@ -4100,7 +4129,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="7">
         <v>41409</v>
       </c>
@@ -4117,7 +4146,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="7">
         <v>41409</v>
       </c>
@@ -4134,7 +4163,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="7">
         <v>41409</v>
       </c>
@@ -4151,7 +4180,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="7">
         <v>41409</v>
       </c>
@@ -4168,7 +4197,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="7">
         <v>41410</v>
       </c>
@@ -4185,7 +4214,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="7">
         <v>41410</v>
       </c>
@@ -4202,7 +4231,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="7">
         <v>41410</v>
       </c>
@@ -4219,7 +4248,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="7">
         <v>41410</v>
       </c>
@@ -4236,7 +4265,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="7">
         <v>41410</v>
       </c>
@@ -4253,7 +4282,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="7">
         <v>41410</v>
       </c>
@@ -4270,7 +4299,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="7">
         <v>41410</v>
       </c>
@@ -4287,7 +4316,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="7">
         <v>41410</v>
       </c>
@@ -4304,7 +4333,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="7">
         <v>41410</v>
       </c>
@@ -4321,7 +4350,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="7">
         <v>41410</v>
       </c>
@@ -4338,7 +4367,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="7">
         <v>41410</v>
       </c>
@@ -4355,7 +4384,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="7">
         <v>41410</v>
       </c>
@@ -4372,7 +4401,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="7">
         <v>41410</v>
       </c>
@@ -4389,7 +4418,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="7">
         <v>41411</v>
       </c>
@@ -4406,7 +4435,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="7">
         <v>41411</v>
       </c>
@@ -4423,7 +4452,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="7">
         <v>41411</v>
       </c>
@@ -4440,7 +4469,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="7">
         <v>41411</v>
       </c>
@@ -4457,7 +4486,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="7">
         <v>41411</v>
       </c>
@@ -4474,7 +4503,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="7">
         <v>41411</v>
       </c>
@@ -4491,7 +4520,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="7">
         <v>41411</v>
       </c>
@@ -4508,7 +4537,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="7">
         <v>41411</v>
       </c>
@@ -4525,7 +4554,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="7">
         <v>41412</v>
       </c>
@@ -4542,7 +4571,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="7">
         <v>41412</v>
       </c>
@@ -4559,7 +4588,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="7">
         <v>41412</v>
       </c>
@@ -4576,7 +4605,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="7">
         <v>41412</v>
       </c>
@@ -4593,7 +4622,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="7">
         <v>41412</v>
       </c>
@@ -4610,7 +4639,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="7">
         <v>41412</v>
       </c>
@@ -4627,7 +4656,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="7">
         <v>41412</v>
       </c>
@@ -4644,7 +4673,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="7">
         <v>41413</v>
       </c>
@@ -4661,7 +4690,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="7">
         <v>41414</v>
       </c>
@@ -4678,7 +4707,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="7">
         <v>41414</v>
       </c>
@@ -4695,7 +4724,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="7">
         <v>41414</v>
       </c>
@@ -4712,7 +4741,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" s="7">
         <v>41415</v>
       </c>
@@ -4729,7 +4758,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="7">
         <v>41415</v>
       </c>
@@ -4746,7 +4775,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="7">
         <v>41415</v>
       </c>
@@ -4763,7 +4792,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="7">
         <v>41416</v>
       </c>
@@ -4780,7 +4809,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="7">
         <v>41417</v>
       </c>
@@ -4797,7 +4826,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" s="7">
         <v>41417</v>
       </c>
@@ -4814,7 +4843,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" s="7">
         <v>41418</v>
       </c>
@@ -4831,7 +4860,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" s="7">
         <v>41418</v>
       </c>
@@ -4848,7 +4877,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" s="7">
         <v>41418</v>
       </c>
@@ -4865,7 +4894,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="7">
         <v>41418</v>
       </c>
@@ -4882,7 +4911,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="7">
         <v>41418</v>
       </c>
@@ -4899,7 +4928,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="7">
         <v>41418</v>
       </c>
@@ -4916,7 +4945,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" s="7">
         <v>41419</v>
       </c>
@@ -4933,7 +4962,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" s="7">
         <v>41419</v>
       </c>
@@ -4950,7 +4979,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" s="7">
         <v>41419</v>
       </c>
@@ -4967,7 +4996,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" s="7">
         <v>41419</v>
       </c>
@@ -4984,7 +5013,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" s="7">
         <v>41420</v>
       </c>
@@ -5001,7 +5030,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" s="7">
         <v>41420</v>
       </c>
@@ -5018,7 +5047,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" s="7">
         <v>41420</v>
       </c>
@@ -5035,7 +5064,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" s="7">
         <v>41421</v>
       </c>
@@ -5052,7 +5081,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" s="7">
         <v>41421</v>
       </c>
@@ -5069,7 +5098,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" s="7">
         <v>41421</v>
       </c>
@@ -5086,7 +5115,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" s="7">
         <v>41421</v>
       </c>
@@ -5103,7 +5132,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" s="7">
         <v>41422</v>
       </c>
@@ -5120,7 +5149,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" s="7">
         <v>41422</v>
       </c>
@@ -5137,7 +5166,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" s="7">
         <v>41422</v>
       </c>
@@ -5154,7 +5183,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" s="7">
         <v>41422</v>
       </c>
@@ -5171,7 +5200,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" s="7">
         <v>41422</v>
       </c>
@@ -5188,7 +5217,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" s="7">
         <v>41422</v>
       </c>
@@ -5205,7 +5234,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" s="7">
         <v>41422</v>
       </c>
@@ -5222,7 +5251,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" s="7">
         <v>41423</v>
       </c>
@@ -5239,7 +5268,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" s="7">
         <v>41423</v>
       </c>
@@ -5256,7 +5285,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" s="7">
         <v>41424</v>
       </c>
@@ -5273,7 +5302,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" s="7">
         <v>41424</v>
       </c>
@@ -5290,7 +5319,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" s="7">
         <v>41424</v>
       </c>
@@ -5307,7 +5336,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" s="7">
         <v>41424</v>
       </c>
@@ -5324,7 +5353,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" s="7">
         <v>41424</v>
       </c>
@@ -5341,7 +5370,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" s="7">
         <v>41425</v>
       </c>
@@ -5358,7 +5387,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" s="7">
         <v>41425</v>
       </c>
@@ -5375,7 +5404,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" s="7">
         <v>41425</v>
       </c>
@@ -5392,7 +5421,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" s="7">
         <v>41425</v>
       </c>
@@ -5409,7 +5438,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" s="7">
         <v>41425</v>
       </c>
@@ -5426,7 +5455,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" s="7">
         <v>41425</v>
       </c>
@@ -5443,7 +5472,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" s="7">
         <v>41425</v>
       </c>
@@ -5460,7 +5489,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" s="7">
         <v>41425</v>
       </c>
@@ -5491,18 +5520,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.44140625" customWidth="1"/>
-    <col min="2" max="2" width="21.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5546875" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
     <col min="6" max="6" width="26" customWidth="1"/>
-    <col min="7" max="7" width="17.88671875" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>60</v>
       </c>
@@ -5522,7 +5551,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>49</v>
       </c>
@@ -5547,7 +5576,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>47</v>
       </c>
@@ -5572,7 +5601,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>48</v>
       </c>
@@ -5597,7 +5626,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>52</v>
       </c>
@@ -5622,7 +5651,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="17"/>
       <c r="C6" s="17"/>
@@ -5630,7 +5659,7 @@
       <c r="E6" s="17"/>
       <c r="F6" s="17"/>
     </row>
-    <row r="8" spans="1:6" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>61</v>
       </c>
@@ -5650,7 +5679,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>53</v>
       </c>
@@ -5675,7 +5704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>54</v>
       </c>
@@ -5700,7 +5729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>56</v>
       </c>
@@ -5725,13 +5754,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" s="16"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" s="16"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
         <v>65</v>
       </c>
@@ -5740,7 +5769,7 @@
       <c r="D14" s="19"/>
       <c r="E14" s="19"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>1</v>
       </c>
@@ -5757,7 +5786,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>41395</v>
       </c>
@@ -5774,7 +5803,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>41395</v>
       </c>
@@ -5791,7 +5820,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>41395</v>
       </c>
@@ -5808,7 +5837,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>41395</v>
       </c>
@@ -5825,7 +5854,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>41395</v>
       </c>
@@ -5842,7 +5871,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>41395</v>
       </c>
@@ -5859,7 +5888,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>41395</v>
       </c>
@@ -5876,7 +5905,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>41395</v>
       </c>
@@ -5893,7 +5922,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>41396</v>
       </c>
@@ -5910,7 +5939,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>41396</v>
       </c>
@@ -5927,7 +5956,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>41396</v>
       </c>
@@ -5944,7 +5973,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>41396</v>
       </c>
@@ -5961,7 +5990,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
         <v>41396</v>
       </c>
@@ -5978,7 +6007,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>41396</v>
       </c>
@@ -5995,7 +6024,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
         <v>41396</v>
       </c>
@@ -6012,7 +6041,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
         <v>41396</v>
       </c>
@@ -6029,7 +6058,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
         <v>41396</v>
       </c>
@@ -6046,7 +6075,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="7">
         <v>41396</v>
       </c>
@@ -6063,7 +6092,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="7">
         <v>41396</v>
       </c>
@@ -6080,7 +6109,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
         <v>41396</v>
       </c>
@@ -6097,7 +6126,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="7">
         <v>41396</v>
       </c>
@@ -6114,7 +6143,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
         <v>41396</v>
       </c>
@@ -6131,7 +6160,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="7">
         <v>41397</v>
       </c>
@@ -6148,7 +6177,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="7">
         <v>41397</v>
       </c>
@@ -6165,7 +6194,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="7">
         <v>41397</v>
       </c>
@@ -6182,7 +6211,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="7">
         <v>41397</v>
       </c>
@@ -6199,7 +6228,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="7">
         <v>41397</v>
       </c>
@@ -6216,7 +6245,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="7">
         <v>41397</v>
       </c>
@@ -6233,7 +6262,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="7">
         <v>41397</v>
       </c>
@@ -6250,7 +6279,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="7">
         <v>41397</v>
       </c>
@@ -6267,7 +6296,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="7">
         <v>41398</v>
       </c>
@@ -6284,7 +6313,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="7">
         <v>41398</v>
       </c>
@@ -6301,7 +6330,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="7">
         <v>41398</v>
       </c>
@@ -6318,7 +6347,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="7">
         <v>41398</v>
       </c>
@@ -6335,7 +6364,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="7">
         <v>41398</v>
       </c>
@@ -6352,7 +6381,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="7">
         <v>41398</v>
       </c>
@@ -6369,7 +6398,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="7">
         <v>41398</v>
       </c>
@@ -6386,7 +6415,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="7">
         <v>41399</v>
       </c>
@@ -6403,7 +6432,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="7">
         <v>41399</v>
       </c>
@@ -6420,7 +6449,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="7">
         <v>41399</v>
       </c>
@@ -6437,7 +6466,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="7">
         <v>41399</v>
       </c>
@@ -6454,7 +6483,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="7">
         <v>41399</v>
       </c>
@@ -6471,7 +6500,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="7">
         <v>41399</v>
       </c>
@@ -6488,7 +6517,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="7">
         <v>41399</v>
       </c>
@@ -6505,7 +6534,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="7">
         <v>41399</v>
       </c>
@@ -6522,7 +6551,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="7">
         <v>41399</v>
       </c>
@@ -6539,7 +6568,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="7">
         <v>41399</v>
       </c>
@@ -6556,7 +6585,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="7">
         <v>41399</v>
       </c>
@@ -6573,7 +6602,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="7">
         <v>41399</v>
       </c>
@@ -6590,7 +6619,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="7">
         <v>41399</v>
       </c>
@@ -6607,7 +6636,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="7">
         <v>41400</v>
       </c>
@@ -6624,7 +6653,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="7">
         <v>41400</v>
       </c>
@@ -6641,7 +6670,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="7">
         <v>41400</v>
       </c>
@@ -6658,7 +6687,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="7">
         <v>41400</v>
       </c>
@@ -6675,7 +6704,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="7">
         <v>41400</v>
       </c>
@@ -6692,7 +6721,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="7">
         <v>41400</v>
       </c>
@@ -6709,7 +6738,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="7">
         <v>41400</v>
       </c>
@@ -6726,7 +6755,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="7">
         <v>41400</v>
       </c>
@@ -6743,7 +6772,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="7">
         <v>41400</v>
       </c>
@@ -6760,7 +6789,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="7">
         <v>41401</v>
       </c>
@@ -6777,7 +6806,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="7">
         <v>41401</v>
       </c>
@@ -6794,7 +6823,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="7">
         <v>41401</v>
       </c>
@@ -6811,7 +6840,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="7">
         <v>41401</v>
       </c>
@@ -6828,7 +6857,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="7">
         <v>41401</v>
       </c>
@@ -6845,7 +6874,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="7">
         <v>41401</v>
       </c>
@@ -6862,7 +6891,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="7">
         <v>41402</v>
       </c>
@@ -6879,7 +6908,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="7">
         <v>41402</v>
       </c>
@@ -6896,7 +6925,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="7">
         <v>41402</v>
       </c>
@@ -6913,7 +6942,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="7">
         <v>41402</v>
       </c>
@@ -6930,7 +6959,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="7">
         <v>41402</v>
       </c>
@@ -6947,7 +6976,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="7">
         <v>41402</v>
       </c>
@@ -6964,7 +6993,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="7">
         <v>41402</v>
       </c>
@@ -6981,7 +7010,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="7">
         <v>41402</v>
       </c>
@@ -6998,7 +7027,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="7">
         <v>41402</v>
       </c>
@@ -7015,7 +7044,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="7">
         <v>41402</v>
       </c>
@@ -7032,7 +7061,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="7">
         <v>41402</v>
       </c>
@@ -7049,7 +7078,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="7">
         <v>41402</v>
       </c>
@@ -7066,7 +7095,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="7">
         <v>41402</v>
       </c>
@@ -7083,7 +7112,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="7">
         <v>41403</v>
       </c>
@@ -7100,7 +7129,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="7">
         <v>41403</v>
       </c>
@@ -7117,7 +7146,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="7">
         <v>41403</v>
       </c>
@@ -7134,7 +7163,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="7">
         <v>41403</v>
       </c>
@@ -7151,7 +7180,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="7">
         <v>41403</v>
       </c>
@@ -7168,7 +7197,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="7">
         <v>41403</v>
       </c>
@@ -7185,7 +7214,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="7">
         <v>41403</v>
       </c>
@@ -7202,7 +7231,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="7">
         <v>41403</v>
       </c>
@@ -7219,7 +7248,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="7">
         <v>41403</v>
       </c>
@@ -7236,7 +7265,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="7">
         <v>41403</v>
       </c>
@@ -7253,7 +7282,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="7">
         <v>41404</v>
       </c>
@@ -7270,7 +7299,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="7">
         <v>41404</v>
       </c>
@@ -7287,7 +7316,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="7">
         <v>41404</v>
       </c>
@@ -7304,7 +7333,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="7">
         <v>41404</v>
       </c>
@@ -7321,7 +7350,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="7">
         <v>41404</v>
       </c>
@@ -7338,7 +7367,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="7">
         <v>41404</v>
       </c>
@@ -7355,7 +7384,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="7">
         <v>41404</v>
       </c>
@@ -7372,7 +7401,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="7">
         <v>41404</v>
       </c>
@@ -7389,7 +7418,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="7">
         <v>41404</v>
       </c>
@@ -7406,7 +7435,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="7">
         <v>41404</v>
       </c>
@@ -7423,7 +7452,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="7">
         <v>41404</v>
       </c>
@@ -7440,7 +7469,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="7">
         <v>41405</v>
       </c>
@@ -7457,7 +7486,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="7">
         <v>41405</v>
       </c>
@@ -7474,7 +7503,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="7">
         <v>41405</v>
       </c>
@@ -7491,7 +7520,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="7">
         <v>41405</v>
       </c>
@@ -7508,7 +7537,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="7">
         <v>41405</v>
       </c>
@@ -7525,7 +7554,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="7">
         <v>41405</v>
       </c>
@@ -7542,7 +7571,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="7">
         <v>41405</v>
       </c>
@@ -7559,7 +7588,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="7">
         <v>41405</v>
       </c>
@@ -7576,7 +7605,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="7">
         <v>41405</v>
       </c>
@@ -7593,7 +7622,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="7">
         <v>41405</v>
       </c>
@@ -7610,7 +7639,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="7">
         <v>41406</v>
       </c>
@@ -7627,7 +7656,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="7">
         <v>41406</v>
       </c>
@@ -7644,7 +7673,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="7">
         <v>41406</v>
       </c>
@@ -7661,7 +7690,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="7">
         <v>41406</v>
       </c>
@@ -7678,7 +7707,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="7">
         <v>41406</v>
       </c>
@@ -7695,7 +7724,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="7">
         <v>41406</v>
       </c>
@@ -7712,7 +7741,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="7">
         <v>41406</v>
       </c>
@@ -7729,7 +7758,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="7">
         <v>41406</v>
       </c>
@@ -7746,7 +7775,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="7">
         <v>41407</v>
       </c>
@@ -7763,7 +7792,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="7">
         <v>41407</v>
       </c>
@@ -7780,7 +7809,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="7">
         <v>41407</v>
       </c>
@@ -7797,7 +7826,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="7">
         <v>41407</v>
       </c>
@@ -7814,7 +7843,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="7">
         <v>41407</v>
       </c>
@@ -7831,7 +7860,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="7">
         <v>41407</v>
       </c>
@@ -7848,7 +7877,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="7">
         <v>41407</v>
       </c>
@@ -7865,7 +7894,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="7">
         <v>41407</v>
       </c>
@@ -7882,7 +7911,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="7">
         <v>41407</v>
       </c>
@@ -7899,7 +7928,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="7">
         <v>41407</v>
       </c>
@@ -7916,7 +7945,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="7">
         <v>41407</v>
       </c>
@@ -7933,7 +7962,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="7">
         <v>41407</v>
       </c>
@@ -7950,7 +7979,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="7">
         <v>41407</v>
       </c>
@@ -7967,7 +7996,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="7">
         <v>41407</v>
       </c>
@@ -7984,7 +8013,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="7">
         <v>41408</v>
       </c>
@@ -8001,7 +8030,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="7">
         <v>41408</v>
       </c>
@@ -8018,7 +8047,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="7">
         <v>41408</v>
       </c>
@@ -8035,7 +8064,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="7">
         <v>41408</v>
       </c>
@@ -8052,7 +8081,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="7">
         <v>41408</v>
       </c>
@@ -8069,7 +8098,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="7">
         <v>41408</v>
       </c>
@@ -8086,7 +8115,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="7">
         <v>41408</v>
       </c>
@@ -8103,7 +8132,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="7">
         <v>41408</v>
       </c>
@@ -8120,7 +8149,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="7">
         <v>41408</v>
       </c>
@@ -8137,7 +8166,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="7">
         <v>41409</v>
       </c>
@@ -8154,7 +8183,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="7">
         <v>41409</v>
       </c>
@@ -8171,7 +8200,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="7">
         <v>41409</v>
       </c>
@@ -8188,7 +8217,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="7">
         <v>41409</v>
       </c>
@@ -8205,7 +8234,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="7">
         <v>41409</v>
       </c>
@@ -8222,7 +8251,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="7">
         <v>41409</v>
       </c>
@@ -8239,7 +8268,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="7">
         <v>41409</v>
       </c>
@@ -8256,7 +8285,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="7">
         <v>41409</v>
       </c>
@@ -8273,7 +8302,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="7">
         <v>41409</v>
       </c>
@@ -8290,7 +8319,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="7">
         <v>41410</v>
       </c>
@@ -8307,7 +8336,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="7">
         <v>41410</v>
       </c>
@@ -8324,7 +8353,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="7">
         <v>41410</v>
       </c>
@@ -8341,7 +8370,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="7">
         <v>41410</v>
       </c>
@@ -8358,7 +8387,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="7">
         <v>41410</v>
       </c>
@@ -8375,7 +8404,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="7">
         <v>41410</v>
       </c>
@@ -8392,7 +8421,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="7">
         <v>41410</v>
       </c>
@@ -8409,7 +8438,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="7">
         <v>41410</v>
       </c>
@@ -8426,7 +8455,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="7">
         <v>41410</v>
       </c>
@@ -8443,7 +8472,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="7">
         <v>41410</v>
       </c>
@@ -8460,7 +8489,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="7">
         <v>41410</v>
       </c>
@@ -8477,7 +8506,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="7">
         <v>41410</v>
       </c>
@@ -8494,7 +8523,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="7">
         <v>41410</v>
       </c>
@@ -8511,7 +8540,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="7">
         <v>41411</v>
       </c>
@@ -8528,7 +8557,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="7">
         <v>41411</v>
       </c>
@@ -8545,7 +8574,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="7">
         <v>41411</v>
       </c>
@@ -8562,7 +8591,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="7">
         <v>41411</v>
       </c>
@@ -8579,7 +8608,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="7">
         <v>41411</v>
       </c>
@@ -8596,7 +8625,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="7">
         <v>41411</v>
       </c>
@@ -8613,7 +8642,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="7">
         <v>41411</v>
       </c>
@@ -8630,7 +8659,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="7">
         <v>41411</v>
       </c>
@@ -8647,7 +8676,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="7">
         <v>41412</v>
       </c>
@@ -8664,7 +8693,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="7">
         <v>41412</v>
       </c>
@@ -8681,7 +8710,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="7">
         <v>41412</v>
       </c>
@@ -8698,7 +8727,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="7">
         <v>41412</v>
       </c>
@@ -8715,7 +8744,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="7">
         <v>41412</v>
       </c>
@@ -8732,7 +8761,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="7">
         <v>41412</v>
       </c>
@@ -8749,7 +8778,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="7">
         <v>41412</v>
       </c>
@@ -8766,7 +8795,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="7">
         <v>41413</v>
       </c>
@@ -8783,7 +8812,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="7">
         <v>41414</v>
       </c>
@@ -8800,7 +8829,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="7">
         <v>41414</v>
       </c>
@@ -8817,7 +8846,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="7">
         <v>41414</v>
       </c>
@@ -8834,7 +8863,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" s="7">
         <v>41415</v>
       </c>
@@ -8851,7 +8880,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="7">
         <v>41415</v>
       </c>
@@ -8868,7 +8897,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="7">
         <v>41415</v>
       </c>
@@ -8885,7 +8914,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="7">
         <v>41416</v>
       </c>
@@ -8902,7 +8931,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="7">
         <v>41417</v>
       </c>
@@ -8919,7 +8948,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" s="7">
         <v>41417</v>
       </c>
@@ -8936,7 +8965,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" s="7">
         <v>41418</v>
       </c>
@@ -8953,7 +8982,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" s="7">
         <v>41418</v>
       </c>
@@ -8970,7 +8999,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" s="7">
         <v>41418</v>
       </c>
@@ -8987,7 +9016,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="7">
         <v>41418</v>
       </c>
@@ -9004,7 +9033,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="7">
         <v>41418</v>
       </c>
@@ -9021,7 +9050,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="7">
         <v>41418</v>
       </c>
@@ -9038,7 +9067,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" s="7">
         <v>41419</v>
       </c>
@@ -9055,7 +9084,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" s="7">
         <v>41419</v>
       </c>
@@ -9072,7 +9101,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" s="7">
         <v>41419</v>
       </c>
@@ -9089,7 +9118,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" s="7">
         <v>41419</v>
       </c>
@@ -9106,7 +9135,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" s="7">
         <v>41420</v>
       </c>
@@ -9123,7 +9152,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" s="7">
         <v>41420</v>
       </c>
@@ -9140,7 +9169,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" s="7">
         <v>41420</v>
       </c>
@@ -9157,7 +9186,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" s="7">
         <v>41421</v>
       </c>
@@ -9174,7 +9203,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" s="7">
         <v>41421</v>
       </c>
@@ -9191,7 +9220,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" s="7">
         <v>41421</v>
       </c>
@@ -9208,7 +9237,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" s="7">
         <v>41421</v>
       </c>
@@ -9225,7 +9254,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" s="7">
         <v>41422</v>
       </c>
@@ -9242,7 +9271,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" s="7">
         <v>41422</v>
       </c>
@@ -9259,7 +9288,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" s="7">
         <v>41422</v>
       </c>
@@ -9276,7 +9305,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" s="7">
         <v>41422</v>
       </c>
@@ -9293,7 +9322,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" s="7">
         <v>41422</v>
       </c>
@@ -9310,7 +9339,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" s="7">
         <v>41422</v>
       </c>
@@ -9327,7 +9356,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" s="7">
         <v>41422</v>
       </c>
@@ -9344,7 +9373,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" s="7">
         <v>41423</v>
       </c>
@@ -9361,7 +9390,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" s="7">
         <v>41423</v>
       </c>
@@ -9378,7 +9407,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" s="7">
         <v>41424</v>
       </c>
@@ -9395,7 +9424,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" s="7">
         <v>41424</v>
       </c>
@@ -9412,7 +9441,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" s="7">
         <v>41424</v>
       </c>
@@ -9429,7 +9458,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" s="7">
         <v>41424</v>
       </c>
@@ -9446,7 +9475,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" s="7">
         <v>41424</v>
       </c>
@@ -9463,7 +9492,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" s="7">
         <v>41425</v>
       </c>
@@ -9480,7 +9509,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" s="7">
         <v>41425</v>
       </c>
@@ -9497,7 +9526,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" s="7">
         <v>41425</v>
       </c>
@@ -9514,7 +9543,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" s="7">
         <v>41425</v>
       </c>
@@ -9531,7 +9560,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" s="7">
         <v>41425</v>
       </c>
@@ -9548,7 +9577,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" s="7">
         <v>41425</v>
       </c>
@@ -9565,7 +9594,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" s="7">
         <v>41425</v>
       </c>
@@ -9582,7 +9611,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" s="7">
         <v>41425</v>
       </c>
@@ -9615,9 +9644,9 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="8" spans="2:2" ht="31.2" x14ac:dyDescent="0.6">
+    <row r="8" spans="2:2" ht="31.5" x14ac:dyDescent="0.5">
       <c r="B8" s="18" t="s">
         <v>75</v>
       </c>
